--- a/LIST.xlsx
+++ b/LIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Python\send_email\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Python\send_email_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992E3361-B4D7-43EC-93AA-A26E1225F6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4475C299-08D4-415F-A804-8B15F4525E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1185" windowWidth="15375" windowHeight="7995" xr2:uid="{1947EC89-FB87-428D-AA8B-F0BA8C7122EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1947EC89-FB87-428D-AA8B-F0BA8C7122EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>EMAIL</t>
   </si>
   <si>
-    <t>cplpmgpcontratos@gmail.com</t>
-  </si>
-  <si>
     <t>DIRETORIES</t>
   </si>
   <si>
@@ -43,6 +40,21 @@
   </si>
   <si>
     <t>D:\\Developer\\Python\\send_email\\FILES\\03</t>
+  </si>
+  <si>
+    <t>email@email.com</t>
+  </si>
+  <si>
+    <t>TITULO</t>
+  </si>
+  <si>
+    <t>CORPO</t>
+  </si>
+  <si>
+    <t>EMAIL DE TESTE</t>
+  </si>
+  <si>
+    <t>Enviando email, com python.</t>
   </si>
 </sst>
 </file>
@@ -94,10 +106,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -413,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B10844-FD59-4454-8CD0-A0268F83A7C9}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,67 +437,89 @@
     <col min="1" max="2" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{AED8A1F9-2981-4587-BEF0-BA63660CCB3E}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{DDC08642-2978-45D2-B6A7-6278C26177D3}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{EB78FBD3-4FD4-4681-9280-111A6BD7FC64}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{28F2CB8B-FA31-4D97-AAC8-68D2C5834419}"/>
+    <hyperlink ref="A3:A4" r:id="rId2" display="email@email.com" xr:uid="{6EB682A0-F9DD-44B4-92D2-E432C2F055AF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>